--- a/Design/Test.xlsx
+++ b/Design/Test.xlsx
@@ -286,7 +286,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -294,7 +294,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
-        <v>200.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -302,7 +302,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>300.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Test.xlsx
+++ b/Design/Test.xlsx
@@ -286,7 +286,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="3">
@@ -294,7 +294,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
-        <v>6.0</v>
+        <v>1001.0</v>
       </c>
     </row>
     <row r="4">
@@ -302,7 +302,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>7.0</v>
+        <v>1002.0</v>
       </c>
     </row>
   </sheetData>
